--- a/question Togh.xlsx
+++ b/question Togh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\git\togh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF09ABE-54EC-4D68-9BC2-A69CB020804C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB21CE88-0B44-4CED-9C9B-72E91E1E57F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11610" yWindow="1845" windowWidth="19815" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="435" windowWidth="15825" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>I created a service
 @Service
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfect, that when I want. The point is in the second class, I got a userService == null </t>
   </si>
   <si>
     <t>Service</t>
@@ -125,12 +122,211 @@
   <si>
     <t>To test</t>
   </si>
+  <si>
+    <t>JPA2</t>
+  </si>
+  <si>
+    <t>Update my database in production</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Second question: imagine that I have now my application in production. Then, I have a new version to deploy: how can I get BEFORE the SQL script to update my database?</t>
+  </si>
+  <si>
+    <t>In that situation, I don't want to drop column "last_name", then create "lastname" but I want to perform an "alter table ..." : how do I can detect changes, to prepare my SQL Script to update my database? I would like a tool which compare the existing schema with the new one and propose to me a SQL Script to update it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPA2: I don't know of a tool to automatically convert your database schema.  How would it figure out what the old column name vs the new column name without you telling it?  So I expect you would need to manually convert your database.  There is probably a nice GUI out there to make it a little easier. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVAN:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I would expect a) a detection tool, b) a SQL script that I can review / then complete. That what I did in my previous company (we didn't use Hibernate). How do YOU do? You let Hibernate update for you your database?</t>
+  </si>
+  <si>
+    <t>PY :</t>
+  </si>
+  <si>
+    <t>JPA3</t>
+  </si>
+  <si>
+    <t>Composition 1-n</t>
+  </si>
+  <si>
+    <t>I have an object (EventEntity), which reference a subentity (ParticipantEntity). This is a composition, which is means this ParticipantEntity is referenced only un the EventEntity. It the same as a "Invoice/InvoiceLines".
+When I create a EventEntity, I want to add Participants, and when I save/load the EventEntity, I want Hibernate to save/load Participants.
+In the database, I'm expected to have fields 
+- Participant.eventId foreign key Event.id
+- Participant.eventOrder int
+(second field to get an ordered list).
+I declared that 
+EventEntity:
+   @OneToMany(fetch = FetchType.EAGER)
+    private List&lt;ParticipantEntity&gt; participants;
+ParticipantEntity:
+   @ManyToOne
+    @JoinColumn(name="eventid")
+    private EventEntity event;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use @OneToMany(
+      mappedBy = "event",
+      cascade = CascadeType.ALL,
+      orphanRemoval = true
+   ) </t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>Perfect !</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>JPA4</t>
+  </si>
+  <si>
+    <t>aggregation 1=&gt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Event,I link an Author, which is a ToghUser. This is a aggregation: a ToghUser is referenced in a lot of tables. And a ToghUser is created completely independately.
+I don't want to load the User when I load an event, but when I call ThogUser user = event.getAuthorId() I want Hibernate to return to me the user.
+In the database, I'm expected that field
+Event.authorId foreignKey ThogUser.id
+I declared that
+   @Column(name="AUTHOR")
+    private ThogUserEntity author;
+   ==&gt; Caused by: org.hibernate.MappingException: Could not determine type for: com.togh.entity.ToghUserEntity, at table: participant, for columns: [org.hibernate.mapping.Column(author)]
+    </t>
+  </si>
+  <si>
+    <t>JPA5</t>
+  </si>
+  <si>
+    <t>Id or Object ?</t>
+  </si>
+  <si>
+    <t>BUT, as you know, in a application, it's very efficient to manipulate have only ID (specialy when the source is a REST call).
+So, I balance between saving and manipulating only ID.
+For example, instead to have a method
+ setAuthor( ThogUserEntity author )
+I imaging to have
+ setAuthor( Long authorId )
+My Java conception prefer the first method. My company use the second approach in the API and I have to say this is more confortable to use it (you saved a lot of 
+ThogUser user = UserService.getFromId( authorId )
+setAuthor( user )</t>
+  </si>
+  <si>
+    <t>Agregation 1=&gt;1 + Rest API</t>
+  </si>
+  <si>
+    <t>JPA6</t>
+  </si>
+  <si>
+    <t>If I choose the previous way (the object), I would like to have in the JSON not the ID, but the object.
+Example : I have a ToghEvent, which declare a ThogUser by aggregation. In the REST API, I return a ToghEvent, but I would like to return that
+TogEvent {
+  "name" : "Birthday,
+  "Author" : { // this is a foreignkey here, but I would like to return the object 
+       "username": "Pierre-yves.monnet",
+       "lastname": "Monnet",
+    },
+   ...}
+   "dateOfEvent " : "2021-10-10"</t>
+  </si>
+  <si>
+    <t>JPA7</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>Manager enum
+I do that
+  public enum StatusEventEnum {
+        INPREPAR, INPROG, CLOSED, CANCELLED;
+        }
+ @Column( name="status")
+  private StatusEventEnum statusEvent;
+And then I discover that the database saved the value as an integer (INPREPAR =0 for example). Hum. The point is if my enum change (I change the order for example), I will completely "foutre le border" in my application. Is there is a way to ask Hibernate to save the value as a STRING?</t>
+  </si>
+  <si>
+    <t>JPA8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set of attribut
+IN general, I love to manipulate not attributes, but Map + constante
+For example, to have this implementation
+Map&lt;String,Object&gt; attributes = new HashMap&lt;&gt;();
+public void setName( String name) {
+ attributes.put(CST_NAME, name );
+}
+public String getName() {
+	return (String) attributes.get( CST_NAME, name);
+}
+then, it's easiest to get at one shot all attributes, or to decide, for example, on a REST CALL, which attributes I want to return (all, or if I want to hide some attributes for a permission reason).
+Is that possible to implemente that?
+Can I do something like a list of 
+@Column() 
+and manipulate my attributes map? </t>
+  </si>
+  <si>
+    <t>manage a Map instead of attributes</t>
+  </si>
+  <si>
+    <t>JPA9</t>
+  </si>
+  <si>
+    <t>Strange error</t>
+  </si>
+  <si>
+    <t>JPA8: I got an error
+   @OneToOne
+    @JoinColumn(name = "author_id")
+    private ToghUserEntity author;
+org.springframework.beans.factory.BeanCreationException: Error creating bean with name 'eventRepository' defined in com.togh.repository.EventRepository defined in @EnableJpaRepositories 
+declared on JpaRepositoriesRegistrar.EnableJpaRepositoriesConfiguration: Cannot resolve reference to bean 'jpaMappingContext' while setting bean property 'mappingContext'; 
+nested exception is org.springframework.beans.factory.BeanCreationException: Error creating bean with name 'jpaMappingContext': 
+Invocation of init method failed; nested exception is javax.persistence.PersistenceException: 
+[PersistenceUnit: default] Unable to build Hibernate SessionFactory; nested exception is org.hibernate.MappingException: 
+Could not determine type for: com.togh.entity.ToghUserEntity, at table: participant, for columns: [org.hibernate.mapping.Column(author)]
+According https://www.baeldung.com/spring-data-rest-relationships, should be Ok</t>
+  </si>
+  <si>
+    <t>TO TEST</t>
+  </si>
+  <si>
+    <t>Perfect, that when I want. The point is in the second class, I got a userService == null when I want to access the userService.Maybe I have to declare a factory to access all services?</t>
+  </si>
+  <si>
+    <t>Actualy, according https://stackoverflow.com/questions/19896870/why-is-my-spring-autowired-field-null
+all services must be "autowired". 
+  @Autowired
+    private static FactoryService factoryService;
+But then when I need to access it from a 'mySpecificclass', how do I do? This class must be a @Service too?  Example with EventConductor, it must be a service too?</t>
+  </si>
+  <si>
+    <t>JPA10</t>
+  </si>
+  <si>
+    <t>I do that:
+   @Query("SELECT e FROM EventEntity e WHERE e.authorId = :userid")
+    List&lt;EventEntity&gt; findEventsUser( @Param("userid") Long userId );
+and then I see that in the log: it load ALL the events contents when I want to get only the eventtables.
+Hibernate: select evententit0_.id as id1_1_, evententit0_.datecreation as datecrea2_1_, evententit0_.datemodification as datemodi3_1_, evententit0_.name as name4_1_, evententit0_.accessdata as accessda5_1_, evententit0_.authorid as authorid6_1_, evententit0_.dateevent as dateeven7_1_, evententit0_.description as descript8_1_, evententit0_.status as status9_1_, evententit0_.typeevent as typeeve10_1_ from eventuser evententit0_ where evententit0_.authorid=?
+Hibernate: select participan0_.eventid as eventid10_2_0_, participan0_.id as id1_2_0_, participan0_.id as id1_2_1_, participan0_.datecreation as datecrea2_2_1_, participan0_.datemodification as datemodi3_2_1_, participan0_.name as name4_2_1_, participan0_.accessdata as accessda5_2_1_, participan0_.authorid as authorid6_2_1_, participan0_.role as role7_2_1_, participan0_.status as status8_2_1_, participan0_.user_id as user_id9_2_1_, toghuseren1_.id as id1_0_2_, toghuseren1_.datecreation as datecrea2_0_2_, toghuseren1_.datemodification as datemodi3_0_2_, toghuseren1_.name as name4_0_2_, toghuseren1_.connectionlastactivity as connecti5_0_2_, toghuseren1_.connect_stamp as connect_6_0_2_, toghuseren1_.connectiontime as connecti7_0_2_, toghuseren1_.email as email8_0_2_, toghuseren1_.firstname as firstnam9_0_2_, toghuseren1_.googleid as googlei10_0_2_, toghuseren1_.lastname as lastnam11_0_2_, toghuseren1_.password as passwor12_0_2_, toghuseren1_.source_user as source_13_0_2_ from participant participan0_ left outer join enduser toghuseren1_ on participan0_.user_id=toghuseren1_.id where participan0_.eventid=?</t>
+  </si>
+  <si>
+    <t>Get list of events : do not load events themself</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +334,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +361,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -171,13 +386,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,16 +694,16 @@
     <col min="4" max="4" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="321" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -496,102 +720,296 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="270" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="22" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="B22" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="43" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="47" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="53" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="57" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="61" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="B54:D54"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/question Togh.xlsx
+++ b/question Togh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\git\togh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB21CE88-0B44-4CED-9C9B-72E91E1E57F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B63E83-81ED-4845-BCDB-E0AB2249D556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="435" windowWidth="15825" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="1875" windowWidth="21690" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -393,15 +393,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,16 +694,16 @@
     <col min="4" max="4" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="321" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -794,14 +794,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -826,11 +826,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -869,11 +869,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -891,106 +891,106 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="43" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="47" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="53" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="53" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="57" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="57" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="61" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="61" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="4" t="s">
         <v>60</v>
       </c>
     </row>

--- a/question Togh.xlsx
+++ b/question Togh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\git\togh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B63E83-81ED-4845-BCDB-E0AB2249D556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEB38D4-018A-4B24-8F49-7EEE06695BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1875" windowWidth="21690" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="495" windowWidth="21690" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>I created a service
 @Service
@@ -120,9 +120,6 @@
     <t>try @AttributeOverride</t>
   </si>
   <si>
-    <t>To test</t>
-  </si>
-  <si>
     <t>JPA2</t>
   </si>
   <si>
@@ -320,6 +317,36 @@
   </si>
   <si>
     <t>Get list of events : do not load events themself</t>
+  </si>
+  <si>
+    <t>React / Internationalisation, which lib ?</t>
+  </si>
+  <si>
+    <t>Devrait etre des chaines. Peut etre sortir l'enumere ? Sinon créer un JPA Handler</t>
+  </si>
+  <si>
+    <t>Christophe</t>
+  </si>
+  <si>
+    <t>No way to configure that</t>
+  </si>
+  <si>
+    <t>Not reproductible</t>
+  </si>
+  <si>
+    <t>Not SPRING spririt</t>
+  </si>
+  <si>
+    <t>manipulate Object. If you want, it's possible to create a object just giving the ID : then, Spring will not load this object and creates the link</t>
+  </si>
+  <si>
+    <t>use the @ManyToOne</t>
+  </si>
+  <si>
+    <t>No tool exists…</t>
+  </si>
+  <si>
+    <t>Not working. No tool exist.</t>
   </si>
 </sst>
 </file>
@@ -342,7 +369,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,12 +394,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -386,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -394,7 +415,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -682,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +723,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="321" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -720,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -728,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -794,14 +814,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -823,191 +843,252 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="3" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="4" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="4" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="53" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="B54" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="57" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="4" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="61" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="4" t="s">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="300" x14ac:dyDescent="0.25">
-      <c r="C62" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B48:D49"/>
-    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="B55:D55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
